--- a/operation-mgmt/src/main/webapp/assets/excel/quotationModel.xlsx
+++ b/operation-mgmt/src/main/webapp/assets/excel/quotationModel.xlsx
@@ -22,7 +22,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>语录类型（数字'0'语录  数字'1'纯水）</t>
+    <t>语录类型（数字'0'语录  数字'1'纯水 数字'2'日签）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +385,7 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="47.375" customWidth="1"/>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="59.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
